--- a/experiment/RUN_ME/stimuli/word_lists/art_targets.xlsx
+++ b/experiment/RUN_ME/stimuli/word_lists/art_targets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\experiment\RUN_ME\stimuli\word_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD13C2E0-C6AE-40FA-B4B1-037CDFA3F51D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA12ED9D-4C40-4074-A452-6725F8CA35B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{925646D3-4ACB-4599-AC00-60113704010E}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="18900" windowHeight="11055" xr2:uid="{925646D3-4ACB-4599-AC00-60113704010E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="60">
   <si>
     <t>אבטיח</t>
   </si>
@@ -95,9 +95,6 @@
     <t>כורסה</t>
   </si>
   <si>
-    <t>גלידה</t>
-  </si>
-  <si>
     <t>מגירה</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>חרגול</t>
   </si>
   <si>
-    <t>כוורת</t>
-  </si>
-  <si>
     <t>מטאור</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>עשבים</t>
   </si>
   <si>
-    <t>פיסגה</t>
-  </si>
-  <si>
     <t>פירות</t>
   </si>
   <si>
@@ -197,9 +188,6 @@
     <t>ציפור</t>
   </si>
   <si>
-    <t>צללים</t>
-  </si>
-  <si>
     <t>צמחים</t>
   </si>
   <si>
@@ -216,6 +204,18 @@
   </si>
   <si>
     <t>שמיים</t>
+  </si>
+  <si>
+    <t>צוללת</t>
+  </si>
+  <si>
+    <t>שבתאי</t>
+  </si>
+  <si>
+    <t>ירקות</t>
+  </si>
+  <si>
+    <t>תמרים</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,9 @@
     <col min="18" max="18" width="6.375" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="6.625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="6.625" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -604,194 +606,191 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -828,13 +827,7 @@
       <c r="S4" t="s">
         <v>1</v>
       </c>
-      <c r="T4" t="s">
-        <v>1</v>
-      </c>
       <c r="V4" t="s">
-        <v>1</v>
-      </c>
-      <c r="X4" t="s">
         <v>1</v>
       </c>
       <c r="Z4" t="s">
@@ -872,6 +865,9 @@
       <c r="J5" t="s">
         <v>2</v>
       </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
       <c r="M5" t="s">
         <v>2</v>
       </c>
@@ -888,6 +884,9 @@
         <v>2</v>
       </c>
       <c r="S5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
         <v>2</v>
       </c>
       <c r="U5" t="s">
@@ -925,6 +924,9 @@
       <c r="I6" t="s">
         <v>3</v>
       </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
       <c r="M6" t="s">
         <v>3</v>
       </c>
@@ -943,7 +945,7 @@
       <c r="S6" t="s">
         <v>3</v>
       </c>
-      <c r="X6" t="s">
+      <c r="T6" t="s">
         <v>3</v>
       </c>
       <c r="Y6" t="s">
@@ -1082,6 +1084,9 @@
       <c r="P8" t="s">
         <v>5</v>
       </c>
+      <c r="T8" t="s">
+        <v>5</v>
+      </c>
       <c r="U8" t="s">
         <v>5</v>
       </c>
@@ -1141,6 +1146,9 @@
       <c r="J9" t="s">
         <v>6</v>
       </c>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
       <c r="N9" t="s">
         <v>6</v>
       </c>
@@ -1191,6 +1199,9 @@
       <c r="I10" t="s">
         <v>7</v>
       </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
       <c r="M10" t="s">
         <v>7</v>
       </c>
@@ -1209,12 +1220,12 @@
       <c r="S10" t="s">
         <v>7</v>
       </c>
+      <c r="T10" t="s">
+        <v>7</v>
+      </c>
       <c r="V10" t="s">
         <v>7</v>
       </c>
-      <c r="X10" t="s">
-        <v>7</v>
-      </c>
       <c r="Y10" t="s">
         <v>7</v>
       </c>
@@ -1227,43 +1238,43 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U11" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="X11" t="s">
+        <v>30</v>
       </c>
       <c r="Z11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -1297,13 +1308,7 @@
       <c r="S12" t="s">
         <v>8</v>
       </c>
-      <c r="T12" t="s">
-        <v>8</v>
-      </c>
       <c r="V12" t="s">
-        <v>8</v>
-      </c>
-      <c r="X12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1335,6 +1340,9 @@
       <c r="J13" t="s">
         <v>9</v>
       </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
       <c r="N13" t="s">
         <v>9</v>
       </c>
@@ -1356,9 +1364,6 @@
       <c r="V13" t="s">
         <v>9</v>
       </c>
-      <c r="X13" t="s">
-        <v>9</v>
-      </c>
       <c r="Y13" t="s">
         <v>9</v>
       </c>
@@ -1377,120 +1382,126 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S14" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="T14" t="s">
+        <v>24</v>
       </c>
       <c r="U14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W15" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="X15" t="s">
+        <v>25</v>
       </c>
       <c r="Z15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -1539,6 +1550,9 @@
       <c r="R16" t="s">
         <v>10</v>
       </c>
+      <c r="T16" t="s">
+        <v>10</v>
+      </c>
       <c r="U16" t="s">
         <v>10</v>
       </c>
@@ -1616,9 +1630,6 @@
       <c r="W17" t="s">
         <v>11</v>
       </c>
-      <c r="X17" t="s">
-        <v>11</v>
-      </c>
       <c r="Y17" t="s">
         <v>11</v>
       </c>
@@ -1660,73 +1671,64 @@
       <c r="S18" t="s">
         <v>12</v>
       </c>
-      <c r="T18" t="s">
-        <v>12</v>
-      </c>
       <c r="V18" t="s">
         <v>12</v>
       </c>
-      <c r="X18" t="s">
-        <v>12</v>
-      </c>
       <c r="Z18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R19" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
@@ -1772,6 +1774,9 @@
       <c r="S20" t="s">
         <v>13</v>
       </c>
+      <c r="T20" t="s">
+        <v>13</v>
+      </c>
       <c r="V20" t="s">
         <v>13</v>
       </c>
@@ -1822,9 +1827,6 @@
       <c r="V21" t="s">
         <v>14</v>
       </c>
-      <c r="X21" t="s">
-        <v>14</v>
-      </c>
       <c r="Y21" t="s">
         <v>14</v>
       </c>
@@ -1857,6 +1859,9 @@
       <c r="J22" t="s">
         <v>15</v>
       </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
       <c r="N22" t="s">
         <v>15</v>
       </c>
@@ -1873,6 +1878,9 @@
         <v>15</v>
       </c>
       <c r="S22" t="s">
+        <v>15</v>
+      </c>
+      <c r="T22" t="s">
         <v>15</v>
       </c>
       <c r="U22" t="s">
@@ -1958,6 +1966,9 @@
       <c r="V23" t="s">
         <v>16</v>
       </c>
+      <c r="X23" t="s">
+        <v>16</v>
+      </c>
       <c r="Y23" t="s">
         <v>16</v>
       </c>
@@ -1976,55 +1987,58 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
       </c>
       <c r="L24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R24" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W24" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="X24" t="s">
+        <v>27</v>
       </c>
       <c r="Z24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
@@ -2073,6 +2087,9 @@
       <c r="S25" t="s">
         <v>17</v>
       </c>
+      <c r="T25" t="s">
+        <v>17</v>
+      </c>
       <c r="U25" t="s">
         <v>17</v>
       </c>
@@ -2080,6 +2097,9 @@
         <v>17</v>
       </c>
       <c r="W25" t="s">
+        <v>17</v>
+      </c>
+      <c r="X25" t="s">
         <v>17</v>
       </c>
       <c r="Y25" t="s">
@@ -2120,6 +2140,9 @@
       <c r="J26" t="s">
         <v>18</v>
       </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
       <c r="L26" t="s">
         <v>18</v>
       </c>
@@ -2168,354 +2191,375 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S27" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="T27" t="s">
+        <v>28</v>
       </c>
       <c r="V27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="L28" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="M28" t="s">
+        <v>56</v>
       </c>
       <c r="N28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O28" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="P28" t="s">
+        <v>56</v>
       </c>
       <c r="Q28" t="s">
-        <v>19</v>
-      </c>
-      <c r="R28" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="S28" t="s">
-        <v>19</v>
-      </c>
-      <c r="U28" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="T28" t="s">
+        <v>56</v>
       </c>
       <c r="V28" t="s">
-        <v>19</v>
-      </c>
-      <c r="W28" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="AA28" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="AB28" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="AC28" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
       </c>
       <c r="N29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S29" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="T29" t="s">
+        <v>19</v>
       </c>
       <c r="U29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S30" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="T30" t="s">
+        <v>20</v>
       </c>
       <c r="U30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W30" t="s">
-        <v>21</v>
-      </c>
-      <c r="X30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S31" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="T31" t="s">
+        <v>21</v>
       </c>
       <c r="U31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
